--- a/DATA/Vocabularies/curiosity.xlsx
+++ b/DATA/Vocabularies/curiosity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Phrases</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Conditional Phrases</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -459,6 +464,7 @@
           <t>Rebel, rebellion, uprising, movement,</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -471,9 +477,10 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lunch, scab(s), swearing, loot, looting, SABC, process, procedure, application, pamphlet,</t>
-        </is>
-      </c>
+          <t>Lunch, scab, scabs, swearing, loot, looting, SABC, process, procedure, application, pamphlet,</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/curiosity.xlsx
+++ b/DATA/Vocabularies/curiosity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Conditional Phrases</t>
+          <t>Conditional_Phrases</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cleaned_phrases</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cleaned_conditional_phrases</t>
         </is>
       </c>
     </row>
@@ -461,10 +471,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rebel, rebellion, uprising, movement,</t>
+          <t>['Rebel', ' rebellion', ' uprising', ' movement', '']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['rebel', 'rebellion', 'uprising', 'movement']</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['rebel', 'rebellion', 'uprising', 'movement']</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -477,10 +497,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lunch, scab, scabs, swearing, loot, looting, SABC, process, procedure, application, pamphlet,</t>
+          <t>['Lunch', ' scab', ' scabs', ' swearing', ' loot', ' looting', ' SABC', ' process', ' procedure', ' application', ' pamphlet', '']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['lunch', 'scab', 'scab', 'swear', 'loot', 'loot', 'sabc', 'process', 'procedure', 'application', 'pamphlet']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['lunch', 'scab', 'scab', 'swear', 'loot', 'loot', 'sabc', 'process', 'procedure', 'application', 'pamphlet']</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/curiosity.xlsx
+++ b/DATA/Vocabularies/curiosity.xlsx
@@ -480,11 +480,7 @@
           <t>['rebel', 'rebellion', 'uprising', 'movement']</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>['rebel', 'rebellion', 'uprising', 'movement']</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,11 +502,7 @@
           <t>['lunch', 'scab', 'scab', 'swear', 'loot', 'loot', 'sabc', 'process', 'procedure', 'application', 'pamphlet']</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>['lunch', 'scab', 'scab', 'swear', 'loot', 'loot', 'sabc', 'process', 'procedure', 'application', 'pamphlet']</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/curiosity.xlsx
+++ b/DATA/Vocabularies/curiosity.xlsx
@@ -471,13 +471,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Rebel', ' rebellion', ' uprising', ' movement', '']</t>
+          <t>['Rebel', 'rebellion', 'uprising', 'movement']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['rebel', 'rebellion', 'uprising', 'movement']</t>
+          <t>['rebel,rebellion,uprising,movement']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -493,13 +493,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['Lunch', ' scab', ' scabs', ' swearing', ' loot', ' looting', ' SABC', ' process', ' procedure', ' application', ' pamphlet', '']</t>
+          <t>['Lunch', 'scab', 'scabs', 'swearing', 'loot', 'looting', 'SABC', 'process', 'procedure', 'application', 'pamphlet']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['lunch', 'scab', 'scab', 'swear', 'loot', 'loot', 'sabc', 'process', 'procedure', 'application', 'pamphlet']</t>
+          <t>['lunch,scab,scabs,swearing,loot,looting,sabc,process,procedure,application,pamphlet']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>

--- a/DATA/Vocabularies/curiosity.xlsx
+++ b/DATA/Vocabularies/curiosity.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -484,7 +484,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
